--- a/test.xlsx
+++ b/test.xlsx
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,6 +418,131 @@
     <row r="14" spans="1:1">
       <c r="A14">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
